--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-procedure.xlsx
@@ -353,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t>この手順の外部識別子 / External Identifiers for this procedure</t>
+    <t>このプロシジャー（処置等）の外部識別子 / External Identifiers for this procedure</t>
   </si>
   <si>
     <t>これは、ビジネスプロセスによって定義され、リソース自体への直接のURL参照が適切でない場合に参照するために使用される、このProcedureに関連する識別子を記録する。</t>
@@ -362,7 +362,7 @@
     <t>これはビジネス識別子であり、リソース識別子ではない（議論参照）。識別子は1つのリソースインスタンスにのみ表示されることがベストだが、ビジネス上の慣習により、同じ識別子を持つ複数のリソースインスタンスが存在することがあるかもしれない。例えば、複数のPatientとPersonリソースインスタンスが同じ社会保険番号を共有しているかもしれない。</t>
   </si>
   <si>
-    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られている手順を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性のある方法で知られているプロシジャー（処置等）を識別できます。 / Allows identification of the procedure as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -482,7 +482,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>手順の状態を指定するコード。 / A code specifying the state of the procedure.</t>
+    <t>プロシジャー（処置等）の状態を指定するコード。 / A code specifying the state of the procedure.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
@@ -535,7 +535,7 @@
     <t>このプロシジャーの分類カテゴリ</t>
   </si>
   <si>
-    <t>検索、並べ替え、表示の手順を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>検索、並べ替え、表示のプロシジャー（処置等）を分類するコード（「外科的処置」など）。 / A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
@@ -1238,7 +1238,7 @@
 例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
-    <t>記録が保持される可能性が高い場所に手順を結びます。 / Ties a procedure to where the records are likely kept.</t>
+    <t>記録が保持される可能性が高い場所にプロシジャー（処置等）を結びます。 / Ties a procedure to where the records are likely kept.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1398,7 +1398,7 @@
     <t>今後の処置が特別なフォローアップを必要とする場合（例：抜糸）、フォローアップはシンプルなnote として表現してもよいが、より複雑になる可能性もあり、その場合はケアプランリソースを使用することができる。</t>
   </si>
   <si>
-    <t>手順で特定のフォローアップが必要な場合 - 例えば縫合の除去。フォローアップは、単純なメモとして表されるか、潜在的により複雑になる可能性があります。その場合、カレプランリソースを使用できます。 / If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
+    <t>プロシジャー（処置等）で特定のフォローアップが必要な場合 - 例えば縫合の除去。フォローアップは、単純なメモとして表されるか、潜在的により複雑になる可能性があります。その場合、カレプランリソースを使用できます。 / If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
@@ -1858,7 +1858,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
